--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengxiaolve/Documents/02_UCI/Courses/quater_2/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D252685D-61E0-1141-B50A-1FECDEFF12AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E891E530-65C4-E144-92FA-AACA5543704D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -103,6 +103,34 @@
     <t>1. Have a rough understanding of reverse engineering. Set up the enviroment
 2. Understand the meaning of why we need to analyze exisiting code.</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/20/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weihuan Fu</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete homework of exploring PacMan 3. </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>understand related code and was able to answer all questions in the homework. Practiced a lot of searching function built in IntelliJ and that helped me navigater starting from a function to its related class files. Wrote all my answers in a relatively easier understanding format MARKDOWN.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ is a very powerful IDE that has a lot of functions to help programmers read and write code faster than traditional IDE. Fully understand every line of code of a system is almost unnecessary when comes to just fixing part pf the system.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feel accomplished after understanding and finally being able to make changes to the project.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00 - 5:00 p.m.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -325,14 +353,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -616,7 +644,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -625,24 +653,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="3"/>
@@ -734,25 +762,25 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="85">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -765,14 +793,28 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
+    <row r="12" spans="1:7" ht="136">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16">
       <c r="A13" s="10"/>

--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengxiaolve/Documents/02_UCI/Courses/quater_2/265/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoluepeng/Documents/02_UCI/Courses/quater_2/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E891E530-65C4-E144-92FA-AACA5543704D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CEA935-4901-1548-A277-97DDFE49DBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37000" yWindow="1800" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>2:00 - 5:00 p.m.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/23/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn the significance of mental modeling in the code comprehension.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Understand the process of mental modeling by analyzing the feature of Pacman.
+Learned how to generate a UML diagram and use it to help understanding.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ is a powerful IDE that assembled a lot of useful plugins such as simpleUML. It's really convinient when analyze code.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not sure about how to use it to analyze our project(sprint-boot), since it's really a huge project.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +339,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -360,6 +384,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -816,14 +843,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+    <row r="13" spans="1:7" ht="102">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16">
       <c r="A14" s="10"/>

--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoluepeng/Documents/02_UCI/Courses/quater_2/265/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoluepeng/Documents/02_UCI/Courses/quater_2/265p_reverse_eng/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CEA935-4901-1548-A277-97DDFE49DBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17730A6D-A7B6-8147-97D7-1DAAFD92230D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="1800" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37000" yWindow="1800" windowWidth="32960" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -154,6 +154,52 @@
   </si>
   <si>
     <t>Not sure about how to use it to analyze our project(sprint-boot), since it's really a huge project.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/28/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-11:00 p.m.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete assignment of anaylizing a feature of spring-boot</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-boot is not quite easy to meet the requirement of our homework since it is a quite huge project and use a lot of java anotation</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A little worried.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/30/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed the feature of proceeding http request in Servlet and generate the UML diagram.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Think about to change a new project for homework.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understood how to generate sequence diagram of a project.
+Learned some experience from our guset.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn more about how to analyze code with some tools to help understanding.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>In my prior projects, we indeed draw the sequence diagram especially when we development some complicated applications which has a lot interaction between different modules. So sequence diagram is a also good way to analyze the existing project.
+I think we should also learn to analyze the code without using plugins. Know how to search code and analyze the call hiarachy is also an essential skill.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +429,10 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -680,24 +726,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="3"/>
@@ -850,7 +896,7 @@
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -866,23 +912,51 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+    <row r="14" spans="1:7" ht="68">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="238">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16">
       <c r="A16" s="10"/>

--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoluepeng/Documents/02_UCI/Courses/quater_2/265p_reverse_eng/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17730A6D-A7B6-8147-97D7-1DAAFD92230D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F366DB5-E106-5D48-B7D8-A519E6480718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37000" yWindow="1800" windowWidth="32960" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,17 +189,17 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Understood how to generate sequence diagram of a project.
-Learned some experience from our guset.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Learn more about how to analyze code with some tools to help understanding.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>In my prior projects, we indeed draw the sequence diagram especially when we development some complicated applications which has a lot interaction between different modules. So sequence diagram is a also good way to analyze the existing project.
-I think we should also learn to analyze the code without using plugins. Know how to search code and analyze the call hiarachy is also an essential skill.</t>
+    <t>1.Understood how to generate sequence diagram of a project.
+2.Learned some experience from our guset.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.In my prior projects, we indeed draw the sequence diagram especially when we development some complicated applications which has a lot interaction between different modules. So sequence diagram is a also good way to analyze the existing project.
+2.I think we should also learn to analyze the code without using plugins. Know how to search code and analyze the call hiarachy is also an essential skill.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -935,7 +935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="238">
+    <row r="15" spans="1:7" ht="255">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -946,10 +946,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>44</v>

--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoluepeng/Documents/02_UCI/Courses/quater_2/265p_reverse_eng/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengxiaolve/Documents/02_UCI/Courses/quater_2/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F366DB5-E106-5D48-B7D8-A519E6480718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A38A8-1EB6-0D45-AA72-E874B6EA4CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="1800" windowWidth="32960" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -200,6 +200,47 @@
   <si>
     <t>1.In my prior projects, we indeed draw the sequence diagram especially when we development some complicated applications which has a lot interaction between different modules. So sequence diagram is a also good way to analyze the existing project.
 2.I think we should also learn to analyze the code without using plugins. Know how to search code and analyze the call hiarachy is also an essential skill.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the code of sprint-boot. Find a core feature and investigate its flow.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Analyzed the sequence of processing  http request with Servlet.
+2. Learned the interaction between http request model and database model.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reading and analyzing code is an essential capability for developers. But besides the code itself, we should also know a lot of related fundamantal knowledge. That will be useful for our understanding.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/5/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:00 - 5:00 p.m.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explore the second feature of spring-boot and generate its sequence diagram and class diagram.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint-boot assembled a lot of libraries  and there are a lot of other related fundamantal knowledge need to learn.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully built the project and generated the sequence and class UML diagram.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -958,23 +1002,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+    <row r="16" spans="1:7" ht="102">
+      <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="68">
+      <c r="A17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16">
       <c r="A18" s="10"/>
@@ -1957,7 +2029,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="27" orientation="portrait"/>
 </worksheet>
 </file>
--- a/diaries/diary-Xiaolue_Peng.xlsx
+++ b/diaries/diary-Xiaolue_Peng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengxiaolve/Documents/02_UCI/Courses/quater_2/265/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pengxiaolve/Documents/02_UCI/Courses/quater_2/265_reverse_eng/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512A38A8-1EB6-0D45-AA72-E874B6EA4CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42A233-5DE2-1744-9DCD-A446CDC9E82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -241,6 +241,124 @@
   </si>
   <si>
     <t>Successfully built the project and generated the sequence and class UML diagram.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/6/2020</t>
+  </si>
+  <si>
+    <t>5:00 - 7:50 pm</t>
+  </si>
+  <si>
+    <t>2/9/2020</t>
+  </si>
+  <si>
+    <t>2:30 - 5:30 pm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organize nots for lecture 2 and lecture 3.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Reviewed the knowledge of lecture 2 and understood and memorized 4 strategies to read code.
+2. Reviewed the knowledge of lecture 3 and organized notes about mental process.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reviewed the knowledge I learned.
+There are a lot of concepts need to memorize.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organize nots for lecture 4 and lecture 5.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Reviewed the knowledge of lecture 4 and mark down some key points about  expert practice and UML diagram.
+2. Reviewed the knowledge of lecture 5 and memorize the concepts of mental simulation.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reviewed various diagrams such as UML diagram, sequence diagram and call graph and use them in a real project. I found they are very useful when analyze code, e.g. the call hierarchy and interaction between different objects.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/13/2020</t>
+  </si>
+  <si>
+    <t>2/11/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perform well in the mid-term exam.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Completed questions in the exam
+2. Learned concepts about stakeholders, key developers and how to describe a project from different perspectives.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn' see the last bonus question since there were extra blank pages between question 15 and 16. </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:00 - 6:00 pm</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/17/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try to understand the comments of homework2 and rewrite.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Seached resource on the internet and tried to find a new feature of spring boot to rewrite our homework2.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint boot is really complex project that is hard to understand. When I can write the elegant code like this.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/19/2020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite homework 2 with a new feature</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Found a new feature of spring boot that is live reload. 
+2. Understood the process of live reload and the interaction between different modules.
+3. Drawed sequence diagram of live reload feature.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understood the mechanism of live reload in the spring boot. It is a useful feature that is to auto reload when we have changes, which could save the cost of buildiing project and reloading server each time. This feature could improve the productivity.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Learned the concepts of mental simulation
+2. Learned what is essential questions when reading code.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Learned how experts read code and the benefits of mental simulation in the process of readling code.
+2. Practiced with code "Hello world"  and analyzed the result.
+3. Practiced sample questions with project Jpacman.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. From the practice of project "Hello world", I learned we need to be skeptical and often ask important questions when reading code.
+2. Learned experience from our guest that we need to focus on techniques and constantly improve myself.</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1048,59 +1166,143 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="16">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
+    <row r="18" spans="1:7" ht="153">
+      <c r="A18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="119">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="136">
+      <c r="A20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="102">
+      <c r="A21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51">
+      <c r="A22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="153">
+      <c r="A23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16">
       <c r="A24" s="10"/>
